--- a/data/vendas.xlsx
+++ b/data/vendas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,301 +451,51 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>produtos</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pagamento</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>pagamento</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>itens</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>produtos</t>
+          <t>desconto</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>V20250505163908</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-05-05</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:39:08</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2.1</v>
+          <t>15:23:11</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Alface Und x1.0']</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>cartao</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[{"codigo": 7501030683414, "desconto": 0.0, "preco_unitario": 2.1, "produto": "Queijo ralado Kinino 40g", "quantidade": 1.0, "tipo": "unidade", "total": 2.1}]</t>
-        </is>
+          <t>dinheiro</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
       </c>
       <c r="G2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-05-05</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>22:20:43</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>dinheiro</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-05-06</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>15:28:26</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>dinheiro</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-05-06</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>17:38:08</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>dinheiro</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-05-06</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>17:53:20</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>credito</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>15:30:09</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>credito</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>15:52:11</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>pix</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-05-07</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>16:29:08</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>pix</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['Cebola KG x1.0']</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-05-08</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20:50:22</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>debito</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['Cebola KG x1.0']</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-05-08</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20:50:52</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>dinheiro</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['Banana Nanica KG x1.0']</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-05-08</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>23:37:12</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>dinheiro</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['Banana Nanica KG x1.0']</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
